--- a/P3/Results/Data/Spinat/Spinach 02-12-2024.xlsx
+++ b/P3/Results/Data/Spinat/Spinach 02-12-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mads\OneDrive\Dokumenter\GitHub\Robotteknologi-3.-semester\P3\Results\Data\Spinat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF3A05C-89C4-484C-AF2D-90D3FE60B294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30B1B2C-B076-4D24-943F-2BD30F181B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -338,6 +338,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Success</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="da-DK" baseline="0"/>
+              <a:t> rate in different amounts of spinach</a:t>
+            </a:r>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -630,7 +660,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="da-DK"/>
-                  <a:t>Percentage corrected (%)</a:t>
+                  <a:t>Success</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> rate</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t> (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -779,11 +817,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="da-DK"/>
-              <a:t>Average PSNR of</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="da-DK" baseline="0"/>
-              <a:t> colour checker compared to ground-truth colour checker</a:t>
+              <a:t>Average PSNR of colour checker compared to ground-truth colour checker</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1123,11 +1157,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="da-DK"/>
-                  <a:t>PSNR compared</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="da-DK" baseline="0"/>
-                  <a:t> with ground-truth colour checker</a:t>
+                  <a:t>PSNR compared with ground-truth colour checker</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1205,7 +1235,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1677,11 +1707,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="da-DK"/>
-                  <a:t>MBE</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="da-DK" baseline="0"/>
-                  <a:t> compared with ground-truth</a:t>
+                  <a:t>MBE compared with ground-truth</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1759,7 +1785,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2165,13 +2191,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="da-DK"/>
-                  <a:t>Spinach</a:t>
+                  <a:t>Spinach (g)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="da-DK" baseline="0"/>
-                  <a:t> (g)</a:t>
-                </a:r>
-                <a:endParaRPr lang="da-DK"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2368,7 +2389,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5044,7 +5065,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="83" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/P3/Results/Data/Spinat/Spinach 02-12-2024.xlsx
+++ b/P3/Results/Data/Spinat/Spinach 02-12-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mads\OneDrive\Dokumenter\GitHub\Robotteknologi-3.-semester\P3\Results\Data\Spinat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30B1B2C-B076-4D24-943F-2BD30F181B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CD063C-1A38-4315-BBD7-85E4F383A5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5064,8 +5064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FFE161-ACCC-49F6-8EA4-80E292C68C7A}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="83" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="83" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/P3/Results/Data/Spinat/Spinach 02-12-2024.xlsx
+++ b/P3/Results/Data/Spinat/Spinach 02-12-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mads\OneDrive\Dokumenter\GitHub\Robotteknologi-3.-semester\P3\Results\Data\Spinat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CD063C-1A38-4315-BBD7-85E4F383A5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569ED1F9-8A51-4FC7-875F-513A84BDFFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1157,7 +1157,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="da-DK"/>
-                  <a:t>PSNR compared with ground-truth colour checker</a:t>
+                  <a:t>PSNR </a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4668,16 +4668,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2019300</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>302507</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:rowOff>101126</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:rowOff>101126</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4705,15 +4705,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>52864</xdr:colOff>
+      <xdr:colOff>245658</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>26193</xdr:rowOff>
+      <xdr:rowOff>17012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>160972</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1468915</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>26193</xdr:rowOff>
+      <xdr:rowOff>17012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5064,8 +5064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FFE161-ACCC-49F6-8EA4-80E292C68C7A}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="83" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="83" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
